--- a/Data/EC/NIT-9010759661.xlsx
+++ b/Data/EC/NIT-9010759661.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15EE3D55-6C5C-4E0C-BDAD-4B4610F4B80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51B17EC-52DE-4B9E-ABEF-54A930C0F824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B042AD89-B8C8-4C4C-8778-2D9740C2E4EE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{69ADBEEE-2FF0-483A-AB95-BD17CBF387F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,19 +65,34 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047407198</t>
+  </si>
+  <si>
+    <t>ARGENIDA BARRIOS ALVAREZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1143382362</t>
+  </si>
+  <si>
+    <t>KAROL ANDREA PEÑATE GARCIA</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
     <t>1143362003</t>
   </si>
   <si>
     <t>HAROLD MANUEL BARRIOS PAJARO</t>
   </si>
   <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1143382362</t>
-  </si>
-  <si>
-    <t>KAROL ANDREA PEÑATE GARCIA</t>
+    <t>1143379974</t>
+  </si>
+  <si>
+    <t>DEYSSY DEL CARMEN ARIZA ZABALETA</t>
   </si>
   <si>
     <t>1047422669</t>
@@ -86,13 +101,19 @@
     <t>YAMIRIS LARA MENDOZA</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
     <t>2504</t>
   </si>
   <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1143396269</t>
+  </si>
+  <si>
+    <t>ISABEL CRISTINA GOMEZ MARTINEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -136,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F82AB08-3263-2C7D-6000-3873E17AA377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70844AAE-9235-9FC3-F138-5B7BDC24F99B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,32 +878,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD48730-6367-401F-B363-0C955098FDE0}">
-  <dimension ref="B2:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6049CC0B-F1D5-41D7-9D24-6D7ACF8E06EF}">
+  <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -891,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -902,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -913,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -924,10 +945,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -940,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -956,15 +977,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>191653</v>
+        <v>419413</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -972,27 +993,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1012,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1035,16 +1056,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>6250</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1076,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>14583</v>
@@ -1067,103 +1088,195 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>6250</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="18">
         <v>56940</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="18">
         <v>1423500</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="H25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G24" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="H29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010759661.xlsx
+++ b/Data/EC/NIT-9010759661.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51B17EC-52DE-4B9E-ABEF-54A930C0F824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D26D24-402F-42DC-924D-730C09E57D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{69ADBEEE-2FF0-483A-AB95-BD17CBF387F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{035F2147-3907-4DF6-A309-F23BB960BA7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,55 +65,40 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1047407198</t>
-  </si>
-  <si>
-    <t>ARGENIDA BARRIOS ALVAREZ</t>
+    <t>1143382362</t>
+  </si>
+  <si>
+    <t>KAROL ANDREA PEÑATE GARCIA</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1143362003</t>
+  </si>
+  <si>
+    <t>HAROLD MANUEL BARRIOS PAJARO</t>
+  </si>
+  <si>
+    <t>1047422669</t>
+  </si>
+  <si>
+    <t>YAMIRIS LARA MENDOZA</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>1143382362</t>
-  </si>
-  <si>
-    <t>KAROL ANDREA PEÑATE GARCIA</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1143362003</t>
-  </si>
-  <si>
-    <t>HAROLD MANUEL BARRIOS PAJARO</t>
-  </si>
-  <si>
-    <t>1143379974</t>
-  </si>
-  <si>
-    <t>DEYSSY DEL CARMEN ARIZA ZABALETA</t>
-  </si>
-  <si>
-    <t>1047422669</t>
-  </si>
-  <si>
-    <t>YAMIRIS LARA MENDOZA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1143396269</t>
-  </si>
-  <si>
-    <t>ISABEL CRISTINA GOMEZ MARTINEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -157,7 +142,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,22 +197,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70844AAE-9235-9FC3-F138-5B7BDC24F99B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F8FBD5-ACD8-237B-DCAA-7A93F763D711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,32 +863,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6049CC0B-F1D5-41D7-9D24-6D7ACF8E06EF}">
-  <dimension ref="B2:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71E2E4-B26A-41CB-B96F-FBEE686A79CA}">
+  <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -912,7 +897,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +908,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +919,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,10 +930,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -961,8 +946,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,15 +962,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>419413</v>
+        <v>305533</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,27 +978,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1033,16 +1018,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,16 +1041,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>14583</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1076,76 +1061,76 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>14583</v>
+        <v>6250</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>6250</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1157,18 +1142,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1180,103 +1165,57 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="2:10">
+      <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="F22" s="24">
         <v>56940</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="24">
         <v>1423500</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G24" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="H27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
